--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1344.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1344.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.125825524413247</v>
+        <v>1.176477789878845</v>
       </c>
       <c r="B1">
-        <v>2.608669457558971</v>
+        <v>2.511827945709229</v>
       </c>
       <c r="C1">
-        <v>4.388940697871494</v>
+        <v>9.450204849243164</v>
       </c>
       <c r="D1">
-        <v>2.490659364366518</v>
+        <v>2.100223541259766</v>
       </c>
       <c r="E1">
-        <v>1.184088860081107</v>
+        <v>1.224712371826172</v>
       </c>
     </row>
   </sheetData>
